--- a/modelos/OBACOM4423013/OBACOM4423013_Sell in_metricas.xlsx
+++ b/modelos/OBACOM4423013/OBACOM4423013_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,581 +473,521 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44810</v>
+        <v>44838</v>
       </c>
       <c r="B2" t="n">
-        <v>52.55419766411694</v>
+        <v>57.22650077999376</v>
       </c>
       <c r="C2" t="n">
-        <v>31.07906420715044</v>
+        <v>31.27401682211919</v>
       </c>
       <c r="D2" t="n">
-        <v>75.0600833788491</v>
+        <v>84.2463846475992</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44803</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44817</v>
+        <v>44845</v>
       </c>
       <c r="B3" t="n">
-        <v>59.56262469146888</v>
+        <v>62.84450359652237</v>
       </c>
       <c r="C3" t="n">
-        <v>36.564016411035</v>
+        <v>36.31281325216055</v>
       </c>
       <c r="D3" t="n">
-        <v>82.37368792394983</v>
+        <v>90.05644788837847</v>
       </c>
       <c r="E3" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44810</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44824</v>
+        <v>44852</v>
       </c>
       <c r="B4" t="n">
-        <v>70.6607921098167</v>
+        <v>74.60396529949607</v>
       </c>
       <c r="C4" t="n">
-        <v>47.56536402084782</v>
+        <v>48.81815908876443</v>
       </c>
       <c r="D4" t="n">
-        <v>90.68473970051856</v>
+        <v>102.5076011007726</v>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44817</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44831</v>
+        <v>44859</v>
       </c>
       <c r="B5" t="n">
-        <v>69.06748466557303</v>
+        <v>85.9443508060946</v>
       </c>
       <c r="C5" t="n">
-        <v>48.15685635226232</v>
+        <v>59.76904843635179</v>
       </c>
       <c r="D5" t="n">
-        <v>91.46742685770732</v>
+        <v>112.3170884669127</v>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44824</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44838</v>
+        <v>44873</v>
       </c>
       <c r="B6" t="n">
-        <v>51.00367422953451</v>
+        <v>74.96250960053095</v>
       </c>
       <c r="C6" t="n">
-        <v>26.83683647379847</v>
+        <v>46.54604702181501</v>
       </c>
       <c r="D6" t="n">
-        <v>73.74069531445939</v>
+        <v>101.5882795750196</v>
       </c>
       <c r="E6" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44831</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44845</v>
+        <v>44880</v>
       </c>
       <c r="B7" t="n">
-        <v>59.54065828485898</v>
+        <v>45.03861401302678</v>
       </c>
       <c r="C7" t="n">
-        <v>37.15830428637562</v>
+        <v>16.40292365513761</v>
       </c>
       <c r="D7" t="n">
-        <v>80.74247221569294</v>
+        <v>73.06530128780724</v>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44838</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44852</v>
+        <v>44887</v>
       </c>
       <c r="B8" t="n">
-        <v>74.65006963370688</v>
+        <v>35.39068594101599</v>
       </c>
       <c r="C8" t="n">
-        <v>52.99366025690882</v>
+        <v>8.348897762803942</v>
       </c>
       <c r="D8" t="n">
-        <v>96.12086122322746</v>
+        <v>60.82935045251622</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44845</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44859</v>
+        <v>44894</v>
       </c>
       <c r="B9" t="n">
-        <v>85.19437436038206</v>
+        <v>48.3687681794826</v>
       </c>
       <c r="C9" t="n">
-        <v>62.00698031167942</v>
+        <v>20.38831087855535</v>
       </c>
       <c r="D9" t="n">
-        <v>107.7887707841212</v>
+        <v>75.19398679756839</v>
       </c>
       <c r="E9" t="n">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44852</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44873</v>
+        <v>44897</v>
       </c>
       <c r="B10" t="n">
-        <v>68.01596285332489</v>
+        <v>47.49550147731902</v>
       </c>
       <c r="C10" t="n">
-        <v>46.65958271489719</v>
+        <v>18.17229931286666</v>
       </c>
       <c r="D10" t="n">
-        <v>91.10276218379715</v>
+        <v>72.08357177035172</v>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44866</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44880</v>
+        <v>44901</v>
       </c>
       <c r="B11" t="n">
-        <v>42.25981679026047</v>
+        <v>46.17659231856481</v>
       </c>
       <c r="C11" t="n">
-        <v>20.42076333756496</v>
+        <v>19.17618077625085</v>
       </c>
       <c r="D11" t="n">
-        <v>66.58657670024013</v>
+        <v>72.13367900665249</v>
       </c>
       <c r="E11" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44873</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44887</v>
+        <v>44908</v>
       </c>
       <c r="B12" t="n">
-        <v>37.29471071239485</v>
+        <v>43.03140737908653</v>
       </c>
       <c r="C12" t="n">
-        <v>13.97739832881643</v>
+        <v>15.3752600750137</v>
       </c>
       <c r="D12" t="n">
-        <v>56.86725039941345</v>
+        <v>69.40394522016804</v>
       </c>
       <c r="E12" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44880</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44894</v>
+        <v>44915</v>
       </c>
       <c r="B13" t="n">
-        <v>48.94269301962805</v>
+        <v>47.89930592483852</v>
       </c>
       <c r="C13" t="n">
-        <v>27.81011128479165</v>
+        <v>21.3284524360696</v>
       </c>
       <c r="D13" t="n">
-        <v>71.90743110551681</v>
+        <v>72.17688481569512</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44887</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44897</v>
+        <v>44957</v>
       </c>
       <c r="B14" t="n">
-        <v>45.83282297416365</v>
+        <v>98.26960228476038</v>
       </c>
       <c r="C14" t="n">
-        <v>23.42179227567498</v>
+        <v>71.56940253349573</v>
       </c>
       <c r="D14" t="n">
-        <v>67.3842544832838</v>
+        <v>125.6185547812687</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44894</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44901</v>
+        <v>44964</v>
       </c>
       <c r="B15" t="n">
-        <v>40.25592039730728</v>
+        <v>49.01639105212305</v>
       </c>
       <c r="C15" t="n">
-        <v>18.67596205792817</v>
+        <v>22.06600852220763</v>
       </c>
       <c r="D15" t="n">
-        <v>61.61395900439272</v>
+        <v>79.4438163126156</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44894</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44908</v>
+        <v>44971</v>
       </c>
       <c r="B16" t="n">
-        <v>35.29962263247133</v>
+        <v>29.83707072974648</v>
       </c>
       <c r="C16" t="n">
-        <v>12.1929354175947</v>
+        <v>1.203602675407904</v>
       </c>
       <c r="D16" t="n">
-        <v>58.54968893983467</v>
+        <v>58.95954585542744</v>
       </c>
       <c r="E16" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44901</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44915</v>
+        <v>44980</v>
       </c>
       <c r="B17" t="n">
-        <v>49.24318080781842</v>
+        <v>-9.217971827710432</v>
       </c>
       <c r="C17" t="n">
-        <v>27.54920847859637</v>
+        <v>-35.02226186383694</v>
       </c>
       <c r="D17" t="n">
-        <v>70.8849409416345</v>
+        <v>20.24664970043775</v>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44908</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B18" t="n">
-        <v>50.70208078014853</v>
+        <v>40.10827266114615</v>
       </c>
       <c r="C18" t="n">
-        <v>29.99977122582532</v>
+        <v>11.78705822985044</v>
       </c>
       <c r="D18" t="n">
-        <v>73.40412470468422</v>
+        <v>69.07036408854084</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44950</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44964</v>
+        <v>44988</v>
       </c>
       <c r="B19" t="n">
-        <v>44.56176913815973</v>
+        <v>45.73182918513083</v>
       </c>
       <c r="C19" t="n">
-        <v>23.31715006665109</v>
+        <v>17.23744983600931</v>
       </c>
       <c r="D19" t="n">
-        <v>68.95390677376255</v>
+        <v>74.50552596789241</v>
       </c>
       <c r="E19" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44957</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44971</v>
+        <v>44992</v>
       </c>
       <c r="B20" t="n">
-        <v>48.57809576012946</v>
+        <v>47.05943274021319</v>
       </c>
       <c r="C20" t="n">
-        <v>25.83426179085309</v>
+        <v>19.7158815321137</v>
       </c>
       <c r="D20" t="n">
-        <v>71.63052253165651</v>
+        <v>73.62601228354328</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44964</v>
+        <v>44991</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44980</v>
+        <v>44999</v>
       </c>
       <c r="B21" t="n">
-        <v>-16.88570220783582</v>
+        <v>48.24115153786347</v>
       </c>
       <c r="C21" t="n">
-        <v>-38.49620220799651</v>
+        <v>19.88291404283537</v>
       </c>
       <c r="D21" t="n">
-        <v>6.496898360002501</v>
+        <v>76.60676665592395</v>
       </c>
       <c r="E21" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44978</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44985</v>
+        <v>45006</v>
       </c>
       <c r="B22" t="n">
-        <v>27.87842454000327</v>
+        <v>29.63070455228146</v>
       </c>
       <c r="C22" t="n">
-        <v>6.22524006369525</v>
+        <v>2.683932007781678</v>
       </c>
       <c r="D22" t="n">
-        <v>49.09789031862933</v>
+        <v>56.78788212908892</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44978</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44988</v>
+        <v>45013</v>
       </c>
       <c r="B23" t="n">
-        <v>39.06922197933977</v>
+        <v>12.79340348528139</v>
       </c>
       <c r="C23" t="n">
-        <v>16.70114887208535</v>
+        <v>-15.12020008865033</v>
       </c>
       <c r="D23" t="n">
-        <v>62.66803085570093</v>
+        <v>40.80640107436685</v>
       </c>
       <c r="E23" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44985</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44992</v>
+        <v>45020</v>
       </c>
       <c r="B24" t="n">
-        <v>42.14491645590837</v>
+        <v>25.36890932347154</v>
       </c>
       <c r="C24" t="n">
-        <v>17.73869279923901</v>
+        <v>-1.33364628691933</v>
       </c>
       <c r="D24" t="n">
-        <v>65.39832175859694</v>
+        <v>52.37275175935965</v>
       </c>
       <c r="E24" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44985</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44999</v>
+        <v>45030</v>
       </c>
       <c r="B25" t="n">
-        <v>46.30917021504093</v>
+        <v>62.61543676269544</v>
       </c>
       <c r="C25" t="n">
-        <v>22.33312012257429</v>
+        <v>35.00065243231166</v>
       </c>
       <c r="D25" t="n">
-        <v>69.56606740826702</v>
+        <v>89.23978406865496</v>
       </c>
       <c r="E25" t="n">
         <v>24</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44992</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45006</v>
+        <v>45034</v>
       </c>
       <c r="B26" t="n">
-        <v>33.24240321233884</v>
+        <v>70.15968880686596</v>
       </c>
       <c r="C26" t="n">
-        <v>8.416048309710705</v>
+        <v>42.26518518539265</v>
       </c>
       <c r="D26" t="n">
-        <v>56.6832082429378</v>
+        <v>99.56008093117666</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44999</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45020</v>
+        <v>45040</v>
       </c>
       <c r="B27" t="n">
-        <v>15.69483159082513</v>
+        <v>72.59363752651635</v>
       </c>
       <c r="C27" t="n">
-        <v>-9.023748122781928</v>
+        <v>44.78639343259837</v>
       </c>
       <c r="D27" t="n">
-        <v>37.90432548593195</v>
+        <v>98.9119841756671</v>
       </c>
       <c r="E27" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="B28" t="n">
-        <v>58.34404036068669</v>
-      </c>
-      <c r="C28" t="n">
-        <v>35.13166193413655</v>
-      </c>
-      <c r="D28" t="n">
-        <v>80.74775723262921</v>
-      </c>
-      <c r="E28" t="n">
-        <v>24</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>45026</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45034</v>
-      </c>
-      <c r="B29" t="n">
-        <v>69.06744037572355</v>
-      </c>
-      <c r="C29" t="n">
-        <v>46.43405973870302</v>
-      </c>
-      <c r="D29" t="n">
-        <v>92.55829242202081</v>
-      </c>
-      <c r="E29" t="n">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="B30" t="n">
-        <v>87.74363078717148</v>
-      </c>
-      <c r="C30" t="n">
-        <v>65.50315121332866</v>
-      </c>
-      <c r="D30" t="n">
-        <v>110.0615309783086</v>
-      </c>
-      <c r="E30" t="n">
-        <v>48</v>
-      </c>
-      <c r="F30" s="2" t="n">
         <v>45033</v>
       </c>
     </row>
@@ -1062,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,74 +1057,74 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1662.834286670759</v>
+        <v>1161.793200531039</v>
       </c>
       <c r="C2" t="n">
-        <v>40.77786515587542</v>
+        <v>34.08508765620295</v>
       </c>
       <c r="D2" t="n">
-        <v>32.68630439244919</v>
+        <v>24.67789547227639</v>
       </c>
       <c r="E2" t="n">
-        <v>2.550834357512958</v>
+        <v>1.340936005826432</v>
       </c>
       <c r="F2" t="n">
-        <v>2.550834357512958</v>
+        <v>0.8717593707338076</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9131756290112696</v>
+        <v>0.6758405329205397</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.7000000000000002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2936.494318837355</v>
+        <v>2266.913462601511</v>
       </c>
       <c r="C3" t="n">
-        <v>54.18942995490315</v>
+        <v>47.61211466214781</v>
       </c>
       <c r="D3" t="n">
-        <v>48.7860033001425</v>
+        <v>46.35673665251473</v>
       </c>
       <c r="E3" t="n">
-        <v>1.951309910088102</v>
+        <v>2.07499976809361</v>
       </c>
       <c r="F3" t="n">
-        <v>3.053702746986771</v>
+        <v>2.07499976809361</v>
       </c>
       <c r="G3" t="n">
-        <v>1.456587814505635</v>
+        <v>1.596608156851164</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>577.0400169797794</v>
+        <v>792.9302278311474</v>
       </c>
       <c r="C4" t="n">
-        <v>24.02165724881985</v>
+        <v>28.15901681222459</v>
       </c>
       <c r="D4" t="n">
-        <v>18.45102247675171</v>
+        <v>24.17363297391314</v>
       </c>
       <c r="E4" t="n">
-        <v>1.452329040303205</v>
+        <v>0.9396525601274166</v>
       </c>
       <c r="F4" t="n">
-        <v>1.452329040303205</v>
+        <v>0.9396525601274166</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258959713944001</v>
+        <v>0.564896514326243</v>
       </c>
       <c r="H4" t="n">
         <v>0.5</v>
@@ -1192,54 +1132,28 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>878.276562638128</v>
+        <v>425.4173613250027</v>
       </c>
       <c r="C5" t="n">
-        <v>29.63573118109503</v>
+        <v>20.62564814314941</v>
       </c>
       <c r="D5" t="n">
-        <v>26.3975314187192</v>
+        <v>16.7255354282436</v>
       </c>
       <c r="E5" t="n">
-        <v>1.441665360999242</v>
+        <v>0.5460159130140094</v>
       </c>
       <c r="F5" t="n">
-        <v>2.125201798104458</v>
+        <v>0.2869678486741133</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7300278400527981</v>
+        <v>0.361369885357391</v>
       </c>
       <c r="H5" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>442.4282484935447</v>
-      </c>
-      <c r="C6" t="n">
-        <v>21.03397842761908</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17.51916123146012</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.6530889376130213</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.2916156357009096</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4114238546866122</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.6956521739130439</v>
+        <v>0.833333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACOM4423013/OBACOM4423013_Sell in_metricas.xlsx
+++ b/modelos/OBACOM4423013/OBACOM4423013_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44838</v>
       </c>
       <c r="B2" t="n">
-        <v>57.22650077999376</v>
+        <v>56.66374664932231</v>
       </c>
       <c r="C2" t="n">
-        <v>31.27401682211919</v>
+        <v>29.36232108617521</v>
       </c>
       <c r="D2" t="n">
-        <v>84.2463846475992</v>
+        <v>85.14260377279626</v>
       </c>
       <c r="E2" t="n">
         <v>72</v>
@@ -496,13 +496,13 @@
         <v>44845</v>
       </c>
       <c r="B3" t="n">
-        <v>62.84450359652237</v>
+        <v>62.64699477991793</v>
       </c>
       <c r="C3" t="n">
-        <v>36.31281325216055</v>
+        <v>37.17585925657438</v>
       </c>
       <c r="D3" t="n">
-        <v>90.05644788837847</v>
+        <v>90.38329645589192</v>
       </c>
       <c r="E3" t="n">
         <v>60</v>
@@ -516,13 +516,13 @@
         <v>44852</v>
       </c>
       <c r="B4" t="n">
-        <v>74.60396529949607</v>
+        <v>75.09663827247721</v>
       </c>
       <c r="C4" t="n">
-        <v>48.81815908876443</v>
+        <v>49.9067267113162</v>
       </c>
       <c r="D4" t="n">
-        <v>102.5076011007726</v>
+        <v>101.566131738339</v>
       </c>
       <c r="E4" t="n">
         <v>60</v>
@@ -536,13 +536,13 @@
         <v>44859</v>
       </c>
       <c r="B5" t="n">
-        <v>85.9443508060946</v>
+        <v>86.35785633228178</v>
       </c>
       <c r="C5" t="n">
-        <v>59.76904843635179</v>
+        <v>60.56983332785919</v>
       </c>
       <c r="D5" t="n">
-        <v>112.3170884669127</v>
+        <v>113.9361204530628</v>
       </c>
       <c r="E5" t="n">
         <v>84</v>
@@ -556,13 +556,13 @@
         <v>44873</v>
       </c>
       <c r="B6" t="n">
-        <v>74.96250960053095</v>
+        <v>74.48954884316834</v>
       </c>
       <c r="C6" t="n">
-        <v>46.54604702181501</v>
+        <v>47.44290008132817</v>
       </c>
       <c r="D6" t="n">
-        <v>101.5882795750196</v>
+        <v>102.1617234757897</v>
       </c>
       <c r="E6" t="n">
         <v>48</v>
@@ -576,13 +576,13 @@
         <v>44880</v>
       </c>
       <c r="B7" t="n">
-        <v>45.03861401302678</v>
+        <v>44.82834187338432</v>
       </c>
       <c r="C7" t="n">
-        <v>16.40292365513761</v>
+        <v>18.61280357112611</v>
       </c>
       <c r="D7" t="n">
-        <v>73.06530128780724</v>
+        <v>69.51247452966588</v>
       </c>
       <c r="E7" t="n">
         <v>48</v>
@@ -596,13 +596,13 @@
         <v>44887</v>
       </c>
       <c r="B8" t="n">
-        <v>35.39068594101599</v>
+        <v>35.85066580235435</v>
       </c>
       <c r="C8" t="n">
-        <v>8.348897762803942</v>
+        <v>10.12290360547987</v>
       </c>
       <c r="D8" t="n">
-        <v>60.82935045251622</v>
+        <v>63.51344863654943</v>
       </c>
       <c r="E8" t="n">
         <v>72</v>
@@ -616,13 +616,13 @@
         <v>44894</v>
       </c>
       <c r="B9" t="n">
-        <v>48.3687681794826</v>
+        <v>48.95048824784143</v>
       </c>
       <c r="C9" t="n">
-        <v>20.38831087855535</v>
+        <v>22.36677693356099</v>
       </c>
       <c r="D9" t="n">
-        <v>75.19398679756839</v>
+        <v>75.15944157109567</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
@@ -636,13 +636,13 @@
         <v>44897</v>
       </c>
       <c r="B10" t="n">
-        <v>47.49550147731902</v>
+        <v>46.91918885485499</v>
       </c>
       <c r="C10" t="n">
-        <v>18.17229931286666</v>
+        <v>20.63632256696252</v>
       </c>
       <c r="D10" t="n">
-        <v>72.08357177035172</v>
+        <v>73.54692013645904</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -656,13 +656,13 @@
         <v>44901</v>
       </c>
       <c r="B11" t="n">
-        <v>46.17659231856481</v>
+        <v>46.26032143193308</v>
       </c>
       <c r="C11" t="n">
-        <v>19.17618077625085</v>
+        <v>20.02819279788917</v>
       </c>
       <c r="D11" t="n">
-        <v>72.13367900665249</v>
+        <v>72.30671426846557</v>
       </c>
       <c r="E11" t="n">
         <v>24</v>
@@ -676,13 +676,13 @@
         <v>44908</v>
       </c>
       <c r="B12" t="n">
-        <v>43.03140737908653</v>
+        <v>42.86139566848594</v>
       </c>
       <c r="C12" t="n">
-        <v>15.3752600750137</v>
+        <v>15.11983233129295</v>
       </c>
       <c r="D12" t="n">
-        <v>69.40394522016804</v>
+        <v>70.33400350155388</v>
       </c>
       <c r="E12" t="n">
         <v>48</v>
@@ -696,13 +696,13 @@
         <v>44915</v>
       </c>
       <c r="B13" t="n">
-        <v>47.89930592483852</v>
+        <v>47.94046860516909</v>
       </c>
       <c r="C13" t="n">
-        <v>21.3284524360696</v>
+        <v>18.97123133211825</v>
       </c>
       <c r="D13" t="n">
-        <v>72.17688481569512</v>
+        <v>77.16236923370565</v>
       </c>
       <c r="E13" t="n">
         <v>36</v>
@@ -716,13 +716,13 @@
         <v>44957</v>
       </c>
       <c r="B14" t="n">
-        <v>98.26960228476038</v>
+        <v>98.54098698255393</v>
       </c>
       <c r="C14" t="n">
-        <v>71.56940253349573</v>
+        <v>73.40591303452436</v>
       </c>
       <c r="D14" t="n">
-        <v>125.6185547812687</v>
+        <v>127.1220883018551</v>
       </c>
       <c r="E14" t="n">
         <v>24</v>
@@ -736,13 +736,13 @@
         <v>44964</v>
       </c>
       <c r="B15" t="n">
-        <v>49.01639105212305</v>
+        <v>49.39427127487049</v>
       </c>
       <c r="C15" t="n">
-        <v>22.06600852220763</v>
+        <v>21.95031836362928</v>
       </c>
       <c r="D15" t="n">
-        <v>79.4438163126156</v>
+        <v>77.47447613347778</v>
       </c>
       <c r="E15" t="n">
         <v>48</v>
@@ -756,13 +756,13 @@
         <v>44971</v>
       </c>
       <c r="B16" t="n">
-        <v>29.83707072974648</v>
+        <v>29.75791916196578</v>
       </c>
       <c r="C16" t="n">
-        <v>1.203602675407904</v>
+        <v>1.033694823881354</v>
       </c>
       <c r="D16" t="n">
-        <v>58.95954585542744</v>
+        <v>58.29644562062401</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
@@ -776,13 +776,13 @@
         <v>44980</v>
       </c>
       <c r="B17" t="n">
-        <v>-9.217971827710432</v>
+        <v>-9.848536645156226</v>
       </c>
       <c r="C17" t="n">
-        <v>-35.02226186383694</v>
+        <v>-40.65393779685822</v>
       </c>
       <c r="D17" t="n">
-        <v>20.24664970043775</v>
+        <v>18.7062853226656</v>
       </c>
       <c r="E17" t="n">
         <v>48</v>
@@ -796,13 +796,13 @@
         <v>44985</v>
       </c>
       <c r="B18" t="n">
-        <v>40.10827266114615</v>
+        <v>39.92296669070952</v>
       </c>
       <c r="C18" t="n">
-        <v>11.78705822985044</v>
+        <v>12.73525080729088</v>
       </c>
       <c r="D18" t="n">
-        <v>69.07036408854084</v>
+        <v>67.18732059333769</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
@@ -816,13 +816,13 @@
         <v>44988</v>
       </c>
       <c r="B19" t="n">
-        <v>45.73182918513083</v>
+        <v>44.91335260486292</v>
       </c>
       <c r="C19" t="n">
-        <v>17.23744983600931</v>
+        <v>17.8204589037738</v>
       </c>
       <c r="D19" t="n">
-        <v>74.50552596789241</v>
+        <v>73.92250040169432</v>
       </c>
       <c r="E19" t="n">
         <v>36</v>
@@ -836,13 +836,13 @@
         <v>44992</v>
       </c>
       <c r="B20" t="n">
-        <v>47.05943274021319</v>
+        <v>47.65275954639252</v>
       </c>
       <c r="C20" t="n">
-        <v>19.7158815321137</v>
+        <v>20.89179912931428</v>
       </c>
       <c r="D20" t="n">
-        <v>73.62601228354328</v>
+        <v>75.54488442141168</v>
       </c>
       <c r="E20" t="n">
         <v>48</v>
@@ -856,13 +856,13 @@
         <v>44999</v>
       </c>
       <c r="B21" t="n">
-        <v>48.24115153786347</v>
+        <v>48.71121749151563</v>
       </c>
       <c r="C21" t="n">
-        <v>19.88291404283537</v>
+        <v>22.96594139013272</v>
       </c>
       <c r="D21" t="n">
-        <v>76.60676665592395</v>
+        <v>76.43454998015535</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
@@ -876,13 +876,13 @@
         <v>45006</v>
       </c>
       <c r="B22" t="n">
-        <v>29.63070455228146</v>
+        <v>29.65860981991105</v>
       </c>
       <c r="C22" t="n">
-        <v>2.683932007781678</v>
+        <v>2.667252419636021</v>
       </c>
       <c r="D22" t="n">
-        <v>56.78788212908892</v>
+        <v>59.61374762614503</v>
       </c>
       <c r="E22" t="n">
         <v>12</v>
@@ -896,13 +896,13 @@
         <v>45013</v>
       </c>
       <c r="B23" t="n">
-        <v>12.79340348528139</v>
+        <v>12.72955025491239</v>
       </c>
       <c r="C23" t="n">
-        <v>-15.12020008865033</v>
+        <v>-13.72721921261944</v>
       </c>
       <c r="D23" t="n">
-        <v>40.80640107436685</v>
+        <v>38.5194193316791</v>
       </c>
       <c r="E23" t="n">
         <v>48</v>
@@ -916,13 +916,13 @@
         <v>45020</v>
       </c>
       <c r="B24" t="n">
-        <v>25.36890932347154</v>
+        <v>25.55882781421257</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.33364628691933</v>
+        <v>1.423337181678658</v>
       </c>
       <c r="D24" t="n">
-        <v>52.37275175935965</v>
+        <v>52.46921042659608</v>
       </c>
       <c r="E24" t="n">
         <v>24</v>
@@ -936,13 +936,13 @@
         <v>45030</v>
       </c>
       <c r="B25" t="n">
-        <v>62.61543676269544</v>
+        <v>62.80867565901768</v>
       </c>
       <c r="C25" t="n">
-        <v>35.00065243231166</v>
+        <v>35.44799293382052</v>
       </c>
       <c r="D25" t="n">
-        <v>89.23978406865496</v>
+        <v>90.17643234698619</v>
       </c>
       <c r="E25" t="n">
         <v>24</v>
@@ -956,13 +956,13 @@
         <v>45034</v>
       </c>
       <c r="B26" t="n">
-        <v>70.15968880686596</v>
+        <v>70.98824369277877</v>
       </c>
       <c r="C26" t="n">
-        <v>42.26518518539265</v>
+        <v>43.43951125372443</v>
       </c>
       <c r="D26" t="n">
-        <v>99.56008093117666</v>
+        <v>96.10068532764406</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
@@ -976,13 +976,13 @@
         <v>45040</v>
       </c>
       <c r="B27" t="n">
-        <v>72.59363752651635</v>
+        <v>73.04423448460625</v>
       </c>
       <c r="C27" t="n">
-        <v>44.78639343259837</v>
+        <v>43.13316098145651</v>
       </c>
       <c r="D27" t="n">
-        <v>98.9119841756671</v>
+        <v>101.0403158489451</v>
       </c>
       <c r="E27" t="n">
         <v>48</v>
@@ -1057,22 +1057,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1161.793200531039</v>
+        <v>1177.582610386879</v>
       </c>
       <c r="C2" t="n">
-        <v>34.08508765620295</v>
+        <v>34.31592356890427</v>
       </c>
       <c r="D2" t="n">
-        <v>24.67789547227639</v>
+        <v>24.81507331272128</v>
       </c>
       <c r="E2" t="n">
-        <v>1.340936005826432</v>
+        <v>1.350206354437857</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8717593707338076</v>
+        <v>0.8822175492512381</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6758405329205397</v>
+        <v>0.677474717461235</v>
       </c>
       <c r="H2" t="n">
         <v>0.7000000000000002</v>
@@ -1083,22 +1083,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2266.913462601511</v>
+        <v>2282.901471133506</v>
       </c>
       <c r="C3" t="n">
-        <v>47.61211466214781</v>
+        <v>47.77971819855686</v>
       </c>
       <c r="D3" t="n">
-        <v>46.35673665251473</v>
+        <v>46.38386275000561</v>
       </c>
       <c r="E3" t="n">
-        <v>2.07499976809361</v>
+        <v>2.057555125672669</v>
       </c>
       <c r="F3" t="n">
-        <v>2.07499976809361</v>
+        <v>2.057555125672669</v>
       </c>
       <c r="G3" t="n">
-        <v>1.596608156851164</v>
+        <v>1.592662416668311</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1109,22 +1109,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>792.9302278311474</v>
+        <v>792.780580532724</v>
       </c>
       <c r="C4" t="n">
-        <v>28.15901681222459</v>
+        <v>28.15635950425275</v>
       </c>
       <c r="D4" t="n">
-        <v>24.17363297391314</v>
+        <v>23.8610141319403</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9396525601274166</v>
+        <v>0.9323106401859643</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9396525601274166</v>
+        <v>0.9323106401859643</v>
       </c>
       <c r="G4" t="n">
-        <v>0.564896514326243</v>
+        <v>0.5572191044711998</v>
       </c>
       <c r="H4" t="n">
         <v>0.5</v>
@@ -1135,22 +1135,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>425.4173613250027</v>
+        <v>429.2716179873551</v>
       </c>
       <c r="C5" t="n">
-        <v>20.62564814314941</v>
+        <v>20.71887105967299</v>
       </c>
       <c r="D5" t="n">
-        <v>16.7255354282436</v>
+        <v>16.88186675032068</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5460159130140094</v>
+        <v>0.5520021604127594</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2869678486741133</v>
+        <v>0.2916451606757697</v>
       </c>
       <c r="G5" t="n">
-        <v>0.361369885357391</v>
+        <v>0.3634569120021662</v>
       </c>
       <c r="H5" t="n">
         <v>0.833333333333333</v>

--- a/modelos/OBACOM4423013/OBACOM4423013_Sell in_metricas.xlsx
+++ b/modelos/OBACOM4423013/OBACOM4423013_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44838</v>
       </c>
       <c r="B2" t="n">
-        <v>56.66374664932231</v>
+        <v>59.49089149072275</v>
       </c>
       <c r="C2" t="n">
-        <v>29.36232108617521</v>
+        <v>31.88515874160384</v>
       </c>
       <c r="D2" t="n">
-        <v>85.14260377279626</v>
+        <v>85.9082567946938</v>
       </c>
       <c r="E2" t="n">
         <v>72</v>
@@ -496,13 +496,13 @@
         <v>44845</v>
       </c>
       <c r="B3" t="n">
-        <v>62.64699477991793</v>
+        <v>64.61408706823181</v>
       </c>
       <c r="C3" t="n">
-        <v>37.17585925657438</v>
+        <v>37.4707187523879</v>
       </c>
       <c r="D3" t="n">
-        <v>90.38329645589192</v>
+        <v>92.90160344480017</v>
       </c>
       <c r="E3" t="n">
         <v>60</v>
@@ -516,13 +516,13 @@
         <v>44852</v>
       </c>
       <c r="B4" t="n">
-        <v>75.09663827247721</v>
+        <v>75.99311440264336</v>
       </c>
       <c r="C4" t="n">
-        <v>49.9067267113162</v>
+        <v>48.80060820033412</v>
       </c>
       <c r="D4" t="n">
-        <v>101.566131738339</v>
+        <v>104.0425408229022</v>
       </c>
       <c r="E4" t="n">
         <v>60</v>
@@ -536,13 +536,13 @@
         <v>44859</v>
       </c>
       <c r="B5" t="n">
-        <v>86.35785633228178</v>
+        <v>87.19979165235151</v>
       </c>
       <c r="C5" t="n">
-        <v>60.56983332785919</v>
+        <v>61.12860780663358</v>
       </c>
       <c r="D5" t="n">
-        <v>113.9361204530628</v>
+        <v>112.5862027516141</v>
       </c>
       <c r="E5" t="n">
         <v>84</v>
@@ -556,13 +556,13 @@
         <v>44873</v>
       </c>
       <c r="B6" t="n">
-        <v>74.48954884316834</v>
+        <v>77.03123996820182</v>
       </c>
       <c r="C6" t="n">
-        <v>47.44290008132817</v>
+        <v>50.36155691562249</v>
       </c>
       <c r="D6" t="n">
-        <v>102.1617234757897</v>
+        <v>102.5156692941675</v>
       </c>
       <c r="E6" t="n">
         <v>48</v>
@@ -576,13 +576,13 @@
         <v>44880</v>
       </c>
       <c r="B7" t="n">
-        <v>44.82834187338432</v>
+        <v>46.474424951925</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61280357112611</v>
+        <v>19.99853897285317</v>
       </c>
       <c r="D7" t="n">
-        <v>69.51247452966588</v>
+        <v>73.56646782695719</v>
       </c>
       <c r="E7" t="n">
         <v>48</v>
@@ -596,13 +596,13 @@
         <v>44887</v>
       </c>
       <c r="B8" t="n">
-        <v>35.85066580235435</v>
+        <v>36.69735855342747</v>
       </c>
       <c r="C8" t="n">
-        <v>10.12290360547987</v>
+        <v>10.61360382458974</v>
       </c>
       <c r="D8" t="n">
-        <v>63.51344863654943</v>
+        <v>65.89961108454587</v>
       </c>
       <c r="E8" t="n">
         <v>72</v>
@@ -616,13 +616,13 @@
         <v>44894</v>
       </c>
       <c r="B9" t="n">
-        <v>48.95048824784143</v>
+        <v>49.78990977765032</v>
       </c>
       <c r="C9" t="n">
-        <v>22.36677693356099</v>
+        <v>23.57853876971699</v>
       </c>
       <c r="D9" t="n">
-        <v>75.15944157109567</v>
+        <v>74.91393360362316</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
@@ -636,13 +636,13 @@
         <v>44897</v>
       </c>
       <c r="B10" t="n">
-        <v>46.91918885485499</v>
+        <v>46.68347888850411</v>
       </c>
       <c r="C10" t="n">
-        <v>20.63632256696252</v>
+        <v>18.83871299805183</v>
       </c>
       <c r="D10" t="n">
-        <v>73.54692013645904</v>
+        <v>72.56133313398131</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -656,13 +656,13 @@
         <v>44901</v>
       </c>
       <c r="B11" t="n">
-        <v>46.26032143193308</v>
+        <v>48.01900940827031</v>
       </c>
       <c r="C11" t="n">
-        <v>20.02819279788917</v>
+        <v>19.37437135207749</v>
       </c>
       <c r="D11" t="n">
-        <v>72.30671426846557</v>
+        <v>74.40922294335816</v>
       </c>
       <c r="E11" t="n">
         <v>24</v>
@@ -676,13 +676,13 @@
         <v>44908</v>
       </c>
       <c r="B12" t="n">
-        <v>42.86139566848594</v>
+        <v>44.85324427982671</v>
       </c>
       <c r="C12" t="n">
-        <v>15.11983233129295</v>
+        <v>16.21590256214952</v>
       </c>
       <c r="D12" t="n">
-        <v>70.33400350155388</v>
+        <v>71.18396698805113</v>
       </c>
       <c r="E12" t="n">
         <v>48</v>
@@ -696,13 +696,13 @@
         <v>44915</v>
       </c>
       <c r="B13" t="n">
-        <v>47.94046860516909</v>
+        <v>49.01863154250751</v>
       </c>
       <c r="C13" t="n">
-        <v>18.97123133211825</v>
+        <v>22.65200909238514</v>
       </c>
       <c r="D13" t="n">
-        <v>77.16236923370565</v>
+        <v>74.83456405269683</v>
       </c>
       <c r="E13" t="n">
         <v>36</v>
@@ -716,13 +716,13 @@
         <v>44957</v>
       </c>
       <c r="B14" t="n">
-        <v>98.54098698255393</v>
+        <v>97.10653044495089</v>
       </c>
       <c r="C14" t="n">
-        <v>73.40591303452436</v>
+        <v>72.09021690188248</v>
       </c>
       <c r="D14" t="n">
-        <v>127.1220883018551</v>
+        <v>125.4793814753312</v>
       </c>
       <c r="E14" t="n">
         <v>24</v>
@@ -736,13 +736,13 @@
         <v>44964</v>
       </c>
       <c r="B15" t="n">
-        <v>49.39427127487049</v>
+        <v>45.2055928826336</v>
       </c>
       <c r="C15" t="n">
-        <v>21.95031836362928</v>
+        <v>17.05221069012687</v>
       </c>
       <c r="D15" t="n">
-        <v>77.47447613347778</v>
+        <v>74.10332401801129</v>
       </c>
       <c r="E15" t="n">
         <v>48</v>
@@ -756,13 +756,13 @@
         <v>44971</v>
       </c>
       <c r="B16" t="n">
-        <v>29.75791916196578</v>
+        <v>24.76151762682593</v>
       </c>
       <c r="C16" t="n">
-        <v>1.033694823881354</v>
+        <v>-3.105883432323128</v>
       </c>
       <c r="D16" t="n">
-        <v>58.29644562062401</v>
+        <v>53.39596991365177</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
@@ -776,13 +776,13 @@
         <v>44980</v>
       </c>
       <c r="B17" t="n">
-        <v>-9.848536645156226</v>
+        <v>-10.08121610327859</v>
       </c>
       <c r="C17" t="n">
-        <v>-40.65393779685822</v>
+        <v>-38.05505661960373</v>
       </c>
       <c r="D17" t="n">
-        <v>18.7062853226656</v>
+        <v>17.18948729269898</v>
       </c>
       <c r="E17" t="n">
         <v>48</v>
@@ -796,13 +796,13 @@
         <v>44985</v>
       </c>
       <c r="B18" t="n">
-        <v>39.92296669070952</v>
+        <v>38.75668625449556</v>
       </c>
       <c r="C18" t="n">
-        <v>12.73525080729088</v>
+        <v>11.58512319554085</v>
       </c>
       <c r="D18" t="n">
-        <v>67.18732059333769</v>
+        <v>68.82139007861544</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
@@ -816,13 +816,13 @@
         <v>44988</v>
       </c>
       <c r="B19" t="n">
-        <v>44.91335260486292</v>
+        <v>43.5015032978736</v>
       </c>
       <c r="C19" t="n">
-        <v>17.8204589037738</v>
+        <v>16.52612266956043</v>
       </c>
       <c r="D19" t="n">
-        <v>73.92250040169432</v>
+        <v>71.27490552097629</v>
       </c>
       <c r="E19" t="n">
         <v>36</v>
@@ -836,13 +836,13 @@
         <v>44992</v>
       </c>
       <c r="B20" t="n">
-        <v>47.65275954639252</v>
+        <v>48.79575567575976</v>
       </c>
       <c r="C20" t="n">
-        <v>20.89179912931428</v>
+        <v>20.95772463111274</v>
       </c>
       <c r="D20" t="n">
-        <v>75.54488442141168</v>
+        <v>75.95306385179148</v>
       </c>
       <c r="E20" t="n">
         <v>48</v>
@@ -856,13 +856,13 @@
         <v>44999</v>
       </c>
       <c r="B21" t="n">
-        <v>48.71121749151563</v>
+        <v>50.81186943073807</v>
       </c>
       <c r="C21" t="n">
-        <v>22.96594139013272</v>
+        <v>24.81740388954476</v>
       </c>
       <c r="D21" t="n">
-        <v>76.43454998015535</v>
+        <v>78.70244923551826</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
@@ -876,13 +876,13 @@
         <v>45006</v>
       </c>
       <c r="B22" t="n">
-        <v>29.65860981991105</v>
+        <v>31.89339773784381</v>
       </c>
       <c r="C22" t="n">
-        <v>2.667252419636021</v>
+        <v>5.934670794823614</v>
       </c>
       <c r="D22" t="n">
-        <v>59.61374762614503</v>
+        <v>60.91650243567624</v>
       </c>
       <c r="E22" t="n">
         <v>12</v>
@@ -896,13 +896,13 @@
         <v>45013</v>
       </c>
       <c r="B23" t="n">
-        <v>12.72955025491239</v>
+        <v>14.24224081630542</v>
       </c>
       <c r="C23" t="n">
-        <v>-13.72721921261944</v>
+        <v>-12.09185511799104</v>
       </c>
       <c r="D23" t="n">
-        <v>38.5194193316791</v>
+        <v>39.35267134040224</v>
       </c>
       <c r="E23" t="n">
         <v>48</v>
@@ -916,13 +916,13 @@
         <v>45020</v>
       </c>
       <c r="B24" t="n">
-        <v>25.55882781421257</v>
+        <v>27.03567812495719</v>
       </c>
       <c r="C24" t="n">
-        <v>1.423337181678658</v>
+        <v>0.409047928106218</v>
       </c>
       <c r="D24" t="n">
-        <v>52.46921042659608</v>
+        <v>53.29483032947631</v>
       </c>
       <c r="E24" t="n">
         <v>24</v>
@@ -936,13 +936,13 @@
         <v>45030</v>
       </c>
       <c r="B25" t="n">
-        <v>62.80867565901768</v>
+        <v>64.12300147990193</v>
       </c>
       <c r="C25" t="n">
-        <v>35.44799293382052</v>
+        <v>36.29211217036351</v>
       </c>
       <c r="D25" t="n">
-        <v>90.17643234698619</v>
+        <v>90.98711233517069</v>
       </c>
       <c r="E25" t="n">
         <v>24</v>
@@ -956,13 +956,13 @@
         <v>45034</v>
       </c>
       <c r="B26" t="n">
-        <v>70.98824369277877</v>
+        <v>73.21650258259973</v>
       </c>
       <c r="C26" t="n">
-        <v>43.43951125372443</v>
+        <v>46.45345905134953</v>
       </c>
       <c r="D26" t="n">
-        <v>96.10068532764406</v>
+        <v>100.3269999677537</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
@@ -976,13 +976,13 @@
         <v>45040</v>
       </c>
       <c r="B27" t="n">
-        <v>73.04423448460625</v>
+        <v>76.48627997874071</v>
       </c>
       <c r="C27" t="n">
-        <v>43.13316098145651</v>
+        <v>48.63780052487142</v>
       </c>
       <c r="D27" t="n">
-        <v>101.0403158489451</v>
+        <v>105.1067880543912</v>
       </c>
       <c r="E27" t="n">
         <v>48</v>
@@ -1057,25 +1057,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1177.582610386879</v>
+        <v>1174.450830444012</v>
       </c>
       <c r="C2" t="n">
-        <v>34.31592356890427</v>
+        <v>34.27026160454589</v>
       </c>
       <c r="D2" t="n">
-        <v>24.81507331272128</v>
+        <v>24.89301041792319</v>
       </c>
       <c r="E2" t="n">
-        <v>1.350206354437857</v>
+        <v>1.350531504742046</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8822175492512381</v>
+        <v>0.8833732259478992</v>
       </c>
       <c r="G2" t="n">
-        <v>0.677474717461235</v>
+        <v>0.6711919195555187</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1083,22 +1083,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2282.901471133506</v>
+        <v>2288.185685922529</v>
       </c>
       <c r="C3" t="n">
-        <v>47.77971819855686</v>
+        <v>47.83498391264001</v>
       </c>
       <c r="D3" t="n">
-        <v>46.38386275000561</v>
+        <v>46.38234749589135</v>
       </c>
       <c r="E3" t="n">
-        <v>2.057555125672669</v>
+        <v>2.050157621430157</v>
       </c>
       <c r="F3" t="n">
-        <v>2.057555125672669</v>
+        <v>2.050157621430157</v>
       </c>
       <c r="G3" t="n">
-        <v>1.592662416668311</v>
+        <v>1.591026291307663</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1109,22 +1109,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>792.780580532724</v>
+        <v>833.0638997421105</v>
       </c>
       <c r="C4" t="n">
-        <v>28.15635950425275</v>
+        <v>28.86284635551578</v>
       </c>
       <c r="D4" t="n">
-        <v>23.8610141319403</v>
+        <v>23.81225238888777</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9323106401859643</v>
+        <v>0.9400834099684237</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9323106401859643</v>
+        <v>0.9400834099684237</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5572191044711998</v>
+        <v>0.5496635440703016</v>
       </c>
       <c r="H4" t="n">
         <v>0.5</v>
@@ -1135,25 +1135,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>429.2716179873551</v>
+        <v>460.9206513579361</v>
       </c>
       <c r="C5" t="n">
-        <v>20.71887105967299</v>
+        <v>21.46906265671457</v>
       </c>
       <c r="D5" t="n">
-        <v>16.88186675032068</v>
+        <v>17.3863453768913</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5520021604127594</v>
+        <v>0.5710666624173295</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2916451606757697</v>
+        <v>0.3140902803346322</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3634569120021662</v>
+        <v>0.3670858680167643</v>
       </c>
       <c r="H5" t="n">
-        <v>0.833333333333333</v>
+        <v>0.6666666666666665</v>
       </c>
     </row>
   </sheetData>
